--- a/khurana_cv/data/courses_taught.xlsx
+++ b/khurana_cv/data/courses_taught.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SDXC\University of Oregon Dropbox\Havi Khurana\Administrative\khurana_cv\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SDXC\University of Oregon Dropbox\Havi Khurana\Personal\Coding projects\khurana_cv\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48664AEF-A242-450B-BE7A-315334B5E822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC592FBC-962B-4B49-8E60-95084A7E49FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14430" yWindow="0" windowWidth="14370" windowHeight="15600" xr2:uid="{F4143829-AF9E-244C-8EFD-6252778B5E60}"/>
+    <workbookView xWindow="4755" yWindow="2190" windowWidth="21600" windowHeight="11385" xr2:uid="{F4143829-AF9E-244C-8EFD-6252778B5E60}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,14 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="52">
   <si>
     <t>quarter</t>
   </si>
   <si>
-    <t>year</t>
-  </si>
-  <si>
     <t>crn</t>
   </si>
   <si>
@@ -66,9 +63,6 @@
     <t>stat</t>
   </si>
   <si>
-    <t>2022/2023</t>
-  </si>
-  <si>
     <t>16366/16367</t>
   </si>
   <si>
@@ -78,9 +72,6 @@
     <t>https://github.com/DavidDLiebowitz/EDUC641_23F.git</t>
   </si>
   <si>
-    <t>2023/2024</t>
-  </si>
-  <si>
     <t>25935/25936</t>
   </si>
   <si>
@@ -88,9 +79,6 @@
   </si>
   <si>
     <t>https://daviddliebowitz.github.io/EDUC643_W24/</t>
-  </si>
-  <si>
-    <t>EDUC 641: Applied Statistics in Education and Human Services II (Discussion Session)</t>
   </si>
   <si>
     <t>EDUC 643: Applied Statistics in Education and Human Services II (Discussion Session)</t>
@@ -178,9 +166,6 @@
     <t>2017-2019</t>
   </si>
   <si>
-    <t>Mathematics teacher for Grades 8-10</t>
-  </si>
-  <si>
     <t>Designed and delivered lesson plans using 5-step activity-based framework (engage, explain, guided practice, independent practice, closure)
 Mentored, counseled and tailored support for students from diverse low-income backgrounds and needs
 Exposed students to new educational and career opportunities</t>
@@ -189,10 +174,25 @@
     <t>2019-20</t>
   </si>
   <si>
-    <t>STEM tutoring sessions for Grades 7-10</t>
-  </si>
-  <si>
     <t>Led small-group tutoring sessions following the organizations' learning plans</t>
+  </si>
+  <si>
+    <t>academic_year</t>
+  </si>
+  <si>
+    <t>2022, 2023</t>
+  </si>
+  <si>
+    <t>EDUC 641: Applied Statistics in Education and Human Services I (Discussion Session)</t>
+  </si>
+  <si>
+    <t>middle and high school</t>
+  </si>
+  <si>
+    <t>Mathematics school teacher</t>
+  </si>
+  <si>
+    <t>STEM tutoring sessions</t>
   </si>
 </sst>
 </file>
@@ -575,8 +575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A80AB2D6-D787-8D4A-BD11-32CAE09CA316}">
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -590,308 +590,314 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
         <v>8</v>
-      </c>
-      <c r="B1" t="s">
-        <v>9</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" t="s">
-        <v>4</v>
-      </c>
       <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" t="s">
-        <v>11</v>
-      </c>
       <c r="K1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="126" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="H2">
         <v>3</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" t="s">
         <v>31</v>
       </c>
-      <c r="L2" t="s">
-        <v>35</v>
-      </c>
       <c r="M2" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="126" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="E3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
         <v>18</v>
-      </c>
-      <c r="G3" t="s">
-        <v>22</v>
       </c>
       <c r="H3">
         <v>3</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" t="s">
         <v>31</v>
       </c>
-      <c r="L3" t="s">
-        <v>35</v>
-      </c>
       <c r="M3" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="126" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="E4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H4">
         <v>3</v>
       </c>
       <c r="I4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="J4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="K4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" t="s">
         <v>31</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5">
         <v>2021</v>
       </c>
       <c r="E5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F5">
         <v>17902</v>
       </c>
       <c r="G5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H5">
         <v>3</v>
       </c>
       <c r="K5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="L5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="63" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6">
         <v>2022</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F6">
         <v>21015</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H6">
         <v>3</v>
       </c>
       <c r="K6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="L6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="63" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B7">
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D7">
         <v>2022</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F7">
         <v>34328</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H7">
         <v>3</v>
       </c>
       <c r="K7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="L7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E8" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>50</v>
+      </c>
+      <c r="K8" t="s">
+        <v>49</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B9">
         <v>2</v>
       </c>
       <c r="D9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" t="s">
+        <v>51</v>
+      </c>
+      <c r="K9" t="s">
         <v>49</v>
       </c>
-      <c r="E9" t="s">
-        <v>43</v>
-      </c>
-      <c r="G9" t="s">
-        <v>50</v>
-      </c>
       <c r="M9" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/khurana_cv/data/courses_taught.xlsx
+++ b/khurana_cv/data/courses_taught.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SDXC\University of Oregon Dropbox\Havi Khurana\Personal\Coding projects\khurana_cv\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC592FBC-962B-4B49-8E60-95084A7E49FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33DC773E-022C-4C9F-8C2E-3D82FB27105F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4755" yWindow="2190" windowWidth="21600" windowHeight="11385" xr2:uid="{F4143829-AF9E-244C-8EFD-6252778B5E60}"/>
+    <workbookView xWindow="3645" yWindow="1845" windowWidth="21600" windowHeight="11385" xr2:uid="{F4143829-AF9E-244C-8EFD-6252778B5E60}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="55">
   <si>
     <t>quarter</t>
   </si>
@@ -193,6 +193,16 @@
   </si>
   <si>
     <t>STEM tutoring sessions</t>
+  </si>
+  <si>
+    <t>Reviewed course materials
+Graded weekly assignments and provided feedback</t>
+  </si>
+  <si>
+    <t>seq</t>
+  </si>
+  <si>
+    <t>Y</t>
   </si>
 </sst>
 </file>
@@ -573,22 +583,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A80AB2D6-D787-8D4A-BD11-32CAE09CA316}">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.5" customWidth="1"/>
-    <col min="6" max="6" width="14.625" customWidth="1"/>
-    <col min="7" max="7" width="34.375" customWidth="1"/>
-    <col min="13" max="13" width="55" customWidth="1"/>
+    <col min="5" max="6" width="23.5" customWidth="1"/>
+    <col min="7" max="7" width="14.625" customWidth="1"/>
+    <col min="8" max="8" width="34.375" customWidth="1"/>
+    <col min="14" max="14" width="55" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -605,31 +615,34 @@
         <v>36</v>
       </c>
       <c r="F1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>29</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="126" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="126" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -646,31 +659,34 @@
         <v>37</v>
       </c>
       <c r="F2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>48</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>3</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>13</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>14</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>27</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>31</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="126" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="126" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -687,31 +703,34 @@
         <v>37</v>
       </c>
       <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
         <v>15</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>18</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>3</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>16</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>27</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>31</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="126" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="126" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -728,31 +747,34 @@
         <v>37</v>
       </c>
       <c r="F4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" t="s">
         <v>19</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>34</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>3</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>20</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>21</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>27</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>31</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -768,23 +790,26 @@
       <c r="E5" t="s">
         <v>38</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>17902</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>23</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>3</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>28</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>30</v>
       </c>
+      <c r="N5" s="3" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="6" spans="1:13" ht="63" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="63" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -800,26 +825,26 @@
       <c r="E6" t="s">
         <v>39</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>21015</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>3</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>28</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="N6" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="63" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="63" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -835,26 +860,26 @@
       <c r="E7" t="s">
         <v>37</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>34328</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>3</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>28</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>30</v>
       </c>
-      <c r="M7" s="3" t="s">
+      <c r="N7" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>41</v>
       </c>
@@ -867,17 +892,17 @@
       <c r="E8" t="s">
         <v>37</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>50</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>49</v>
       </c>
-      <c r="M8" s="3" t="s">
+      <c r="N8" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>41</v>
       </c>
@@ -890,13 +915,13 @@
       <c r="E9" t="s">
         <v>39</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>51</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>49</v>
       </c>
-      <c r="M9" s="3" t="s">
+      <c r="N9" s="3" t="s">
         <v>45</v>
       </c>
     </row>

--- a/khurana_cv/data/courses_taught.xlsx
+++ b/khurana_cv/data/courses_taught.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SDXC\University of Oregon Dropbox\Havi Khurana\Personal\Coding projects\khurana_cv\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33DC773E-022C-4C9F-8C2E-3D82FB27105F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA49A5E6-2234-4C25-96FB-164DD2DD1580}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3645" yWindow="1845" windowWidth="21600" windowHeight="11385" xr2:uid="{F4143829-AF9E-244C-8EFD-6252778B5E60}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F4143829-AF9E-244C-8EFD-6252778B5E60}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="45">
   <si>
     <t>quarter</t>
   </si>
@@ -63,36 +63,9 @@
     <t>stat</t>
   </si>
   <si>
-    <t>16366/16367</t>
-  </si>
-  <si>
-    <t>https://daviddliebowitz.github.io/EDUC641_23F/</t>
-  </si>
-  <si>
     <t>https://github.com/DavidDLiebowitz/EDUC641_23F.git</t>
   </si>
   <si>
-    <t>25935/25936</t>
-  </si>
-  <si>
-    <t>https://github.com/DavidDLiebowitz/EDUC643_W24.git</t>
-  </si>
-  <si>
-    <t>https://daviddliebowitz.github.io/EDUC643_W24/</t>
-  </si>
-  <si>
-    <t>EDUC 643: Applied Statistics in Education and Human Services II (Discussion Session)</t>
-  </si>
-  <si>
-    <t>31570/31571</t>
-  </si>
-  <si>
-    <t>https://uo-educ-quant.github.io/645/</t>
-  </si>
-  <si>
-    <t>https://github.com/uo-educ-quant/645.git</t>
-  </si>
-  <si>
     <t>leader</t>
   </si>
   <si>
@@ -124,23 +97,6 @@
   </si>
   <si>
     <t>responsibilities</t>
-  </si>
-  <si>
-    <t>Led lab sessions introducing and reinforcing statistical programming skills in R
-Developed worksheets for summarizing concepts
-Supervised a two-person team of GEs
-Held virtual and in-person office hours for answering students' questions
-Graded student assignment and provided detailed feedback through a rubric</t>
-  </si>
-  <si>
-    <t>EDUC 645: Applied Statistics in Education and Human Services III (Discussion Session)</t>
-  </si>
-  <si>
-    <t>Led lab sessions introducing and reinforcing statistical programming skills in R
-Developed worksheets for summarizing concepts
-Supervised a three-person team of GEs
-Held virtual and in-person office hours for answering students' questions
-Graded student assignment and provided detailed feedback through a rubric</t>
   </si>
   <si>
     <t>mode</t>
@@ -183,9 +139,6 @@
     <t>2022, 2023</t>
   </si>
   <si>
-    <t>EDUC 641: Applied Statistics in Education and Human Services I (Discussion Session)</t>
-  </si>
-  <si>
     <t>middle and high school</t>
   </si>
   <si>
@@ -202,25 +155,30 @@
     <t>seq</t>
   </si>
   <si>
-    <t>Y</t>
+    <t>16366/16367; 25935/25936; 31570/31571</t>
+  </si>
+  <si>
+    <t>EDUC 641/643.645: Applied Statistics in Education and Human Services (Discussion Session)</t>
+  </si>
+  <si>
+    <t>https://daviddliebowitz.github.io/EDUC641_23F/; https://daviddliebowitz.github.io/EDUC643_W24/; https://uo-educ-quant.github.io/645/</t>
+  </si>
+  <si>
+    <t>Led lab sessions introducing and reinforcing statistical programming skills in R
+Developed worksheets for summarizing concepts
+Supervised a two-to-three GEs
+Held virtual and in-person office hours for answering students' questions
+Graded student assignment and provided detailed feedback through a rubric</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -255,22 +213,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -583,17 +538,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A80AB2D6-D787-8D4A-BD11-32CAE09CA316}">
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="23.5" customWidth="1"/>
-    <col min="7" max="7" width="14.625" customWidth="1"/>
+    <col min="5" max="5" width="23.5" customWidth="1"/>
+    <col min="6" max="7" width="14.625" customWidth="1"/>
     <col min="8" max="8" width="34.375" customWidth="1"/>
     <col min="14" max="14" width="55" customWidth="1"/>
   </cols>
@@ -609,16 +564,16 @@
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="E1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="F1" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="G1" t="s">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="H1" t="s">
         <v>2</v>
@@ -633,13 +588,13 @@
         <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="M1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="N1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="126" x14ac:dyDescent="0.25">
@@ -653,280 +608,192 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="F2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
+        <v>41</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
       </c>
       <c r="H2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="I2">
         <v>3</v>
       </c>
       <c r="J2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="K2" t="s">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>2021</v>
+      </c>
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3">
+        <v>17902</v>
+      </c>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="L2" t="s">
-        <v>27</v>
-      </c>
-      <c r="M2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="126" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>18</v>
       </c>
       <c r="I3">
         <v>3</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" t="s">
-        <v>16</v>
-      </c>
       <c r="L3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="63" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>2022</v>
+      </c>
+      <c r="E4" t="s">
         <v>27</v>
       </c>
-      <c r="M3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="126" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" t="s">
-        <v>34</v>
+      <c r="F4">
+        <v>21015</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="I4">
         <v>3</v>
       </c>
-      <c r="J4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" t="s">
         <v>21</v>
       </c>
-      <c r="L4" t="s">
-        <v>27</v>
-      </c>
-      <c r="M4" t="s">
-        <v>31</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>35</v>
+      <c r="N4" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="63" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D5">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="E5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5">
-        <v>17902</v>
-      </c>
-      <c r="H5" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="F5">
+        <v>34328</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="I5">
         <v>3</v>
       </c>
       <c r="L5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="M5" t="s">
+    </row>
+    <row r="6" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
         <v>30</v>
       </c>
-      <c r="N5" s="3" t="s">
-        <v>52</v>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="63" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6">
+    <row r="7" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7">
         <v>2</v>
       </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6">
-        <v>2022</v>
-      </c>
-      <c r="E6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6">
-        <v>21015</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6">
-        <v>3</v>
-      </c>
-      <c r="L6" t="s">
-        <v>28</v>
-      </c>
-      <c r="M6" t="s">
-        <v>30</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="63" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7">
-        <v>2022</v>
+      <c r="D7" t="s">
+        <v>32</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7">
-        <v>34328</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I7">
-        <v>3</v>
+        <v>27</v>
+      </c>
+      <c r="H7" t="s">
+        <v>38</v>
       </c>
       <c r="L7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M7" t="s">
-        <v>30</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" t="s">
-        <v>37</v>
-      </c>
-      <c r="H8" t="s">
-        <v>50</v>
-      </c>
-      <c r="L8" t="s">
-        <v>49</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="D9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" t="s">
-        <v>39</v>
-      </c>
-      <c r="H9" t="s">
-        <v>51</v>
-      </c>
-      <c r="L9" t="s">
-        <v>49</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>45</v>
+        <v>36</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/khurana_cv/data/courses_taught.xlsx
+++ b/khurana_cv/data/courses_taught.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SDXC\University of Oregon Dropbox\Havi Khurana\Personal\Coding projects\khurana_cv\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA49A5E6-2234-4C25-96FB-164DD2DD1580}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD838829-47E5-4EEA-9867-81C5AC637909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F4143829-AF9E-244C-8EFD-6252778B5E60}"/>
+    <workbookView xWindow="975" yWindow="1875" windowWidth="21600" windowHeight="11385" xr2:uid="{F4143829-AF9E-244C-8EFD-6252778B5E60}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="46">
   <si>
     <t>quarter</t>
   </si>
@@ -169,6 +169,9 @@
 Supervised a two-to-three GEs
 Held virtual and in-person office hours for answering students' questions
 Graded student assignment and provided detailed feedback through a rubric</t>
+  </si>
+  <si>
+    <t>short_cv</t>
   </si>
 </sst>
 </file>
@@ -538,10 +541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A80AB2D6-D787-8D4A-BD11-32CAE09CA316}">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="G5" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -553,7 +556,7 @@
     <col min="14" max="14" width="55" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -596,8 +599,11 @@
       <c r="N1" t="s">
         <v>23</v>
       </c>
+      <c r="O1" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="2" spans="1:14" ht="126" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="126" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -641,7 +647,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -676,7 +682,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="63" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="63" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -711,7 +717,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="63" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="63" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -746,7 +752,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -769,7 +775,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>29</v>
       </c>

--- a/khurana_cv/data/courses_taught.xlsx
+++ b/khurana_cv/data/courses_taught.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SDXC\University of Oregon Dropbox\Havi Khurana\Personal\Coding projects\khurana_cv\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\havis\University of Oregon Dropbox\Havi Khurana\Personal\Coding projects\khurana_cv\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD838829-47E5-4EEA-9867-81C5AC637909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F65A7F8B-5AA2-46B0-B858-C14CECF7708F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="975" yWindow="1875" windowWidth="21600" windowHeight="11385" xr2:uid="{F4143829-AF9E-244C-8EFD-6252778B5E60}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{F4143829-AF9E-244C-8EFD-6252778B5E60}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -136,9 +136,6 @@
     <t>academic_year</t>
   </si>
   <si>
-    <t>2022, 2023</t>
-  </si>
-  <si>
     <t>middle and high school</t>
   </si>
   <si>
@@ -158,27 +155,30 @@
     <t>16366/16367; 25935/25936; 31570/31571</t>
   </si>
   <si>
-    <t>EDUC 641/643.645: Applied Statistics in Education and Human Services (Discussion Session)</t>
-  </si>
-  <si>
     <t>https://daviddliebowitz.github.io/EDUC641_23F/; https://daviddliebowitz.github.io/EDUC643_W24/; https://uo-educ-quant.github.io/645/</t>
   </si>
   <si>
-    <t>Led lab sessions introducing and reinforcing statistical programming skills in R
-Developed worksheets for summarizing concepts
-Supervised a two-to-three GEs
+    <t>short_cv</t>
+  </si>
+  <si>
+    <t>EDUC 641/643/645: Applied Statistics in Education and Human Services (Discussion Session)</t>
+  </si>
+  <si>
+    <t>Led lab sessions introducing R programming langugage to run, analyze, and describe statistical models
+Developed learning material (worksheets) for student practice and summarizing concepts
+Supervised a team of 2-3 GEs
 Held virtual and in-person office hours for answering students' questions
-Graded student assignment and provided detailed feedback through a rubric</t>
-  </si>
-  <si>
-    <t>short_cv</t>
+Graded student assignment and provided feedback through a rubric</t>
+  </si>
+  <si>
+    <t>2022, 2023, 2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -543,20 +543,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A80AB2D6-D787-8D4A-BD11-32CAE09CA316}">
   <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G5" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5"/>
   <cols>
     <col min="4" max="4" width="23.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.5" customWidth="1"/>
-    <col min="6" max="7" width="14.625" customWidth="1"/>
-    <col min="8" max="8" width="34.375" customWidth="1"/>
+    <col min="6" max="7" width="14.58203125" customWidth="1"/>
+    <col min="8" max="8" width="34.33203125" customWidth="1"/>
     <col min="14" max="14" width="55" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -576,7 +576,7 @@
         <v>1</v>
       </c>
       <c r="G1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H1" t="s">
         <v>2</v>
@@ -600,10 +600,10 @@
         <v>23</v>
       </c>
       <c r="O1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="126" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="139.5">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -614,25 +614,25 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
       </c>
       <c r="F2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G2">
         <v>3</v>
       </c>
       <c r="H2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I2">
         <v>3</v>
       </c>
       <c r="J2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K2" t="s">
         <v>12</v>
@@ -647,7 +647,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="31">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -679,10 +679,10 @@
         <v>21</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="63" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="62">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -717,7 +717,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="63" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="62">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -752,7 +752,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="93">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -766,16 +766,16 @@
         <v>25</v>
       </c>
       <c r="H6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N6" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="31">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -789,10 +789,10 @@
         <v>27</v>
       </c>
       <c r="H7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N7" s="2" t="s">
         <v>33</v>

--- a/khurana_cv/data/courses_taught.xlsx
+++ b/khurana_cv/data/courses_taught.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\havis\University of Oregon Dropbox\Havi Khurana\Personal\Coding projects\khurana_cv\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F65A7F8B-5AA2-46B0-B858-C14CECF7708F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{692B52F3-D81E-4F72-8277-56B97E8CF6DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{F4143829-AF9E-244C-8EFD-6252778B5E60}"/>
   </bookViews>
@@ -119,9 +119,6 @@
     <t>k12</t>
   </si>
   <si>
-    <t>2017-2019</t>
-  </si>
-  <si>
     <t>Designed and delivered lesson plans using 5-step activity-based framework (engage, explain, guided practice, independent practice, closure)
 Mentored, counseled and tailored support for students from diverse low-income backgrounds and needs
 Exposed students to new educational and career opportunities</t>
@@ -164,14 +161,17 @@
     <t>EDUC 641/643/645: Applied Statistics in Education and Human Services (Discussion Session)</t>
   </si>
   <si>
-    <t>Led lab sessions introducing R programming langugage to run, analyze, and describe statistical models
+    <t>Led lab sessions introducing R programming langugage to run, analyze, and communicate results from common statistical models
 Developed learning material (worksheets) for student practice and summarizing concepts
 Supervised a team of 2-3 GEs
 Held virtual and in-person office hours for answering students' questions
 Graded student assignment and provided feedback through a rubric</t>
   </si>
   <si>
-    <t>2022, 2023, 2024</t>
+    <t>2022-24</t>
+  </si>
+  <si>
+    <t>2017-19</t>
   </si>
 </sst>
 </file>
@@ -543,8 +543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A80AB2D6-D787-8D4A-BD11-32CAE09CA316}">
   <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5"/>
@@ -567,7 +567,7 @@
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E1" t="s">
         <v>24</v>
@@ -576,7 +576,7 @@
         <v>1</v>
       </c>
       <c r="G1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H1" t="s">
         <v>2</v>
@@ -600,10 +600,10 @@
         <v>23</v>
       </c>
       <c r="O1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="139.5">
+    <row r="2" spans="1:15" ht="155">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -614,25 +614,25 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
       </c>
       <c r="F2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G2">
         <v>3</v>
       </c>
       <c r="H2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I2">
         <v>3</v>
       </c>
       <c r="J2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K2" t="s">
         <v>12</v>
@@ -644,7 +644,7 @@
         <v>22</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="31">
@@ -679,7 +679,7 @@
         <v>21</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="62">
@@ -760,19 +760,19 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="E6" t="s">
         <v>25</v>
       </c>
       <c r="H6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="31">
@@ -783,19 +783,19 @@
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E7" t="s">
         <v>27</v>
       </c>
       <c r="H7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/khurana_cv/data/courses_taught.xlsx
+++ b/khurana_cv/data/courses_taught.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\havis\University of Oregon Dropbox\Havi Khurana\Personal\Coding projects\khurana_cv\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{692B52F3-D81E-4F72-8277-56B97E8CF6DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9190CC18-AFAD-4ABB-A787-4A3E97141BAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{F4143829-AF9E-244C-8EFD-6252778B5E60}"/>
   </bookViews>
@@ -161,17 +161,17 @@
     <t>EDUC 641/643/645: Applied Statistics in Education and Human Services (Discussion Session)</t>
   </si>
   <si>
+    <t>2022-24</t>
+  </si>
+  <si>
+    <t>2017-19</t>
+  </si>
+  <si>
     <t>Led lab sessions introducing R programming langugage to run, analyze, and communicate results from common statistical models
 Developed learning material (worksheets) for student practice and summarizing concepts
-Supervised a team of 2-3 GEs
+Supervised a team of graduate employees
 Held virtual and in-person office hours for answering students' questions
 Graded student assignment and provided feedback through a rubric</t>
-  </si>
-  <si>
-    <t>2022-24</t>
-  </si>
-  <si>
-    <t>2017-19</t>
   </si>
 </sst>
 </file>
@@ -543,8 +543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A80AB2D6-D787-8D4A-BD11-32CAE09CA316}">
   <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="I2" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5"/>
@@ -614,7 +614,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
@@ -644,7 +644,7 @@
         <v>22</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="31">
@@ -760,7 +760,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E6" t="s">
         <v>25</v>
